--- a/7r_mart_supermarket/src/test/resources/TestData.xlsx
+++ b/7r_mart_supermarket/src/test/resources/TestData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30be9c5bca3cfaeb/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyoth\git\7rmartsupermarket\7r_mart_supermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785E7FD6-BD33-48FC-ABED-FBF95175F76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F65B1-320A-4D79-8321-16F29147987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B3BEBBA-15A1-43BC-9B0D-895BBAC7C238}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{1B3BEBBA-15A1-43BC-9B0D-895BBAC7C238}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
+    <sheet name="managecontact" sheetId="2" r:id="rId2"/>
+    <sheet name="managefooter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -50,16 +51,54 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>dtime</t>
+  </si>
+  <si>
+    <t>dcharge</t>
+  </si>
+  <si>
+    <t>jyothi</t>
+  </si>
+  <si>
+    <t>kadapra,seethathodu</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>kadapra</t>
+  </si>
+  <si>
+    <t>jyothi@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,13 +121,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8258061C-30F6-43A5-A15F-44B1FCC6D100}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -452,4 +494,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787DCDEC-AAEB-4175-92F1-1EA550ED6A0D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9089878978</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0DD7B-3EFD-47DC-A4C1-CCFA805910A3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>8989765656</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7686AA46-410F-4C6A-876C-080A95BD198A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7r_mart_supermarket/src/test/resources/TestData.xlsx
+++ b/7r_mart_supermarket/src/test/resources/TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyoth\git\7rmartsupermarket\7r_mart_supermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F65B1-320A-4D79-8321-16F29147987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD76D6-34A8-4922-A314-3F32F9BE7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{1B3BEBBA-15A1-43BC-9B0D-895BBAC7C238}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{1B3BEBBA-15A1-43BC-9B0D-895BBAC7C238}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="managecontact" sheetId="2" r:id="rId2"/>
-    <sheet name="managefooter" sheetId="3" r:id="rId3"/>
+    <sheet name="managenews" sheetId="4" r:id="rId3"/>
+    <sheet name="managecategory" sheetId="5" r:id="rId4"/>
+    <sheet name="managefooter" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -81,13 +83,25 @@
   </si>
   <si>
     <t>jyothi@gmail.com</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Have a nice day</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Shoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +116,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,9 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787DCDEC-AAEB-4175-92F1-1EA550ED6A0D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -550,6 +571,60 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30605C9A-F71C-4C1F-BC11-72DEFEB3ACAF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F66F0D-059A-4A4E-95DE-8E7CC77BD640}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A0DD7B-3EFD-47DC-A4C1-CCFA805910A3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
